--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEW_JERSEY_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEW_JERSEY_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1255"/>
+  <dimension ref="A1:D1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -451,7 +451,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="7">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C22">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C25">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C31">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C35">
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="D42">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="43">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C54">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C59">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C64">
@@ -1704,7 +1704,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C101">
@@ -1787,7 +1787,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C111">
@@ -2096,12 +2096,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C130">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C132">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C133">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C139">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C145">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C148">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C153">
@@ -2478,14 +2478,14 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C159">
         <v>13</v>
       </c>
       <c r="D159">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="160">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C169">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C181">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C183">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C192">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C198">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C207">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C218">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C219">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C226">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C238">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C239">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C243">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C248">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,14 +3697,14 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C252">
         <v>13</v>
       </c>
       <c r="D252">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="253">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C255">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C256">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,14 +3788,14 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C259">
         <v>13</v>
       </c>
       <c r="D259">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C262">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C268">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C273">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C279">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C282">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C284">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C287">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C303">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,14 +4412,14 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C307">
         <v>126</v>
       </c>
       <c r="D307">
-        <v>0.009174311926605505</v>
+        <v>0.009174311926605503</v>
       </c>
     </row>
     <row r="308">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C317">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C322">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C327">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C333">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C336">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C348">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C357">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C359">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C366">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C369">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C372">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C385">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C391">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C395">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C397">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C400">
@@ -5792,7 +5792,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C412">
@@ -5968,7 +5968,7 @@
         <v>13</v>
       </c>
       <c r="D425">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="426">
@@ -6020,7 +6020,7 @@
         <v>13</v>
       </c>
       <c r="D429">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="430">
@@ -6273,7 +6273,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C449">
@@ -6590,7 +6590,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C473">
@@ -6655,7 +6655,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C478">
@@ -6681,7 +6681,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C480">
@@ -6785,7 +6785,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C488">
@@ -6977,7 +6977,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C502">
@@ -7003,7 +7003,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C504">
@@ -7047,7 +7047,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C507">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C512">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C516">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C519">
@@ -7242,20 +7242,20 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C522">
         <v>13</v>
       </c>
       <c r="D522">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C523">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C525">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C529">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,20 +7372,20 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C532">
         <v>135</v>
       </c>
       <c r="D532">
-        <v>0.009829619921363041</v>
+        <v>0.009829619921363039</v>
       </c>
     </row>
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C533">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C544">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C546">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C549">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C553">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C557">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C560">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C574">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C579">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C586">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C589">
@@ -8133,7 +8133,7 @@
         <v>13</v>
       </c>
       <c r="D590">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C592">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C601">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C609">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C618">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C657">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C676">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C710">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C714">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C728">
@@ -10109,7 +10109,7 @@
         <v>13</v>
       </c>
       <c r="D742">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="743">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C772">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C793">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C794">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C796">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C797">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C801">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C802">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C803">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C804">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C806">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C807">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C809">
@@ -11303,7 +11303,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C834">
@@ -11349,7 +11349,7 @@
         <v>13</v>
       </c>
       <c r="D837">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="838">
@@ -11433,7 +11433,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C844">
@@ -11563,7 +11563,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C854">
@@ -11602,7 +11602,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C857">
@@ -11615,7 +11615,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C858">
@@ -11823,7 +11823,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C874">
@@ -11836,7 +11836,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C875">
@@ -11901,7 +11901,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C880">
@@ -11940,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C883">
@@ -12044,7 +12044,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C891">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C900">
@@ -12291,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C910">
@@ -12512,7 +12512,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C927">
@@ -12532,7 +12532,7 @@
         <v>13</v>
       </c>
       <c r="D928">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="929">
@@ -12545,7 +12545,7 @@
         <v>131</v>
       </c>
       <c r="D929">
-        <v>0.009538371923693025</v>
+        <v>0.009538371923693023</v>
       </c>
     </row>
     <row r="930">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C931">
@@ -12577,7 +12577,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C932">
@@ -12642,7 +12642,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C937">
@@ -12746,7 +12746,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C945">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C946">
@@ -12837,7 +12837,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C952">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C954">
@@ -12876,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C955">
@@ -12941,7 +12941,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C960">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C971">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C976">
@@ -13182,7 +13182,7 @@
         <v>13</v>
       </c>
       <c r="D978">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="979">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C993">
@@ -13401,7 +13401,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C995">
@@ -13427,7 +13427,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C997">
@@ -13440,7 +13440,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C998">
@@ -13453,7 +13453,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C999">
@@ -13492,7 +13492,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1002">
@@ -13593,7 +13593,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1009">
@@ -13710,7 +13710,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1018">
@@ -13788,7 +13788,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1024">
@@ -13801,7 +13801,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1025">
@@ -13814,7 +13814,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1026">
@@ -13827,7 +13827,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1027">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1071">
@@ -14502,7 +14502,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1077">
@@ -14567,7 +14567,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1082">
@@ -14606,7 +14606,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1085">
@@ -14645,14 +14645,14 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1088">
         <v>13</v>
       </c>
       <c r="D1088">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="1089">
@@ -14697,7 +14697,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1092">
@@ -14795,13 +14795,13 @@
         <v>13</v>
       </c>
       <c r="D1099">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1100">
@@ -15066,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1120">
@@ -15118,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1124">
@@ -15209,7 +15209,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1131">
@@ -15307,7 +15307,7 @@
         <v>13</v>
       </c>
       <c r="D1138">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="1139">
@@ -15339,7 +15339,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1141">
@@ -15508,7 +15508,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1154">
@@ -15521,7 +15521,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1155">
@@ -15560,7 +15560,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1158">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1159">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1160">
@@ -15703,7 +15703,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1169">
@@ -15768,7 +15768,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1174">
@@ -15794,7 +15794,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1176">
@@ -15846,7 +15846,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1180">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1187">
@@ -15976,7 +15976,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1190">
@@ -16009,7 +16009,7 @@
         <v>13</v>
       </c>
       <c r="D1192">
-        <v>0.0009465559924275521</v>
+        <v>0.000946555992427552</v>
       </c>
     </row>
     <row r="1193">
@@ -16041,7 +16041,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1195">
@@ -16392,7 +16392,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1222">
@@ -16470,7 +16470,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1228">
@@ -16483,7 +16483,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1229">
@@ -16597,7 +16597,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1237">
@@ -16701,7 +16701,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1245">
@@ -16761,41 +16761,6 @@
       </c>
       <c r="D1249">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
